--- a/Subject_Dir/ToDolist_Dir/Trashcan.xlsx
+++ b/Subject_Dir/ToDolist_Dir/Trashcan.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="21">
   <si>
     <t>과목</t>
   </si>
@@ -48,6 +48,33 @@
   </si>
   <si>
     <t>2</t>
+  </si>
+  <si>
+    <t>SW테스트</t>
+  </si>
+  <si>
+    <t>테스트 케이스 설계 수정</t>
+  </si>
+  <si>
+    <t>7월19일</t>
+  </si>
+  <si>
+    <t>7월23일</t>
+  </si>
+  <si>
+    <t>준비</t>
+  </si>
+  <si>
+    <t>테스트 케이스 수행</t>
+  </si>
+  <si>
+    <t>8월1일</t>
+  </si>
+  <si>
+    <t>8월2일</t>
+  </si>
+  <si>
+    <t>3</t>
   </si>
 </sst>
 </file>
@@ -92,7 +119,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView tabSelected="true" workbookViewId="0"/>
   </sheetViews>
@@ -138,6 +165,46 @@
         <v>11</v>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" t="s">
+        <v>20</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/Subject_Dir/ToDolist_Dir/Trashcan.xlsx
+++ b/Subject_Dir/ToDolist_Dir/Trashcan.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>프로젝트</t>
   </si>
@@ -30,6 +30,24 @@
   </si>
   <si>
     <t>중요도</t>
+  </si>
+  <si>
+    <t>K-Pper 개발</t>
+  </si>
+  <si>
+    <t>프로젝트 계획서 작성</t>
+  </si>
+  <si>
+    <t>2월7일</t>
+  </si>
+  <si>
+    <t>2월8일</t>
+  </si>
+  <si>
+    <t>완료</t>
+  </si>
+  <si>
+    <t>1</t>
   </si>
 </sst>
 </file>
@@ -64,19 +82,19 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
   </cellXfs>
 </styleSheet>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G1"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="true"/>
+    <sheetView tabSelected="true" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
@@ -100,6 +118,26 @@
         <v>5</v>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" t="s">
+        <v>11</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
